--- a/指数数据1.xlsx
+++ b/指数数据1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa学习\大三下\系统建模与仿真\大作业\代码实现\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa学习\大三下\系统建模与仿真\大作业\GA_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5D35AA-4102-4BAD-B42D-2A861DF304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765779B-FD42-4303-83D5-0556AC669168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{F9B5743D-5A04-47A2-852C-F72B229DE78E}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>日经225</t>
   </si>
   <si>
-    <t>纽约证交所综指</t>
-  </si>
-  <si>
     <t>恒生指数</t>
   </si>
   <si>
@@ -68,6 +65,10 @@
   </si>
   <si>
     <t>韩国综指</t>
+  </si>
+  <si>
+    <t>纽交所综指</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -9031,7 +9032,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>纽约证交所综指</c:v>
+                  <c:v>纽交所综指</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21791,8 +21792,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21817,16 +21818,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -34397,7 +34398,7 @@
       </c>
       <c r="E1" s="21" t="str">
         <f>'收盘价(元)'!E1</f>
-        <v>纽约证交所综指</v>
+        <v>纽交所综指</v>
       </c>
       <c r="F1" s="21" t="str">
         <f>'收盘价(元)'!F1</f>
@@ -50220,6 +50221,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D039B4A2-9303-4CC6-88D9-223D9573622C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50259,7 +50261,7 @@
       </c>
       <c r="E1" s="21" t="str">
         <f>对数收益率!E1</f>
-        <v>纽约证交所综指</v>
+        <v>纽交所综指</v>
       </c>
       <c r="F1" s="21" t="str">
         <f>对数收益率!F1</f>
@@ -50276,7 +50278,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="19">
         <f>AVERAGE(对数收益率!B3:B479)</f>
@@ -50309,7 +50311,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <f>_xlfn.VAR.S(对数收益率!B3:B479)</f>

--- a/指数数据1.xlsx
+++ b/指数数据1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa学习\大三下\系统建模与仿真\大作业\GA_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4765779B-FD42-4303-83D5-0556AC669168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1F1624-75CF-46B5-8366-6FA9DB226044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{F9B5743D-5A04-47A2-852C-F72B229DE78E}"/>
   </bookViews>
@@ -20713,7 +20713,7 @@
         <c:axId val="759288528"/>
         <c:axId val="759290128"/>
       </c:lineChart>
-      <c:dateAx>
+      <c:catAx>
         <c:axId val="759288528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -20728,10 +20728,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -20744,10 +20741,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -20759,10 +20753,13 @@
         </c:txPr>
         <c:crossAx val="759290128"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:tickLblSkip val="36"/>
+        <c:tickMarkSkip val="36"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="759290128"/>
         <c:scaling>
@@ -20773,12 +20770,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -20802,10 +20794,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -20822,7 +20811,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -20844,10 +20835,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -21792,8 +21780,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
